--- a/biology/Zoologie/Ariane_béryl/Ariane_béryl.xlsx
+++ b/biology/Zoologie/Ariane_béryl/Ariane_béryl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ariane_b%C3%A9ryl</t>
+          <t>Ariane_béryl</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saucerottia beryllina
 L’Ariane béryl (Saucerottia beryllina) est une espèce de oiseaux de la famille des Trochilidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ariane_b%C3%A9ryl</t>
+          <t>Ariane_béryl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est présent au Guatemala, au Honduras, au Salvador et au Mexique. Quelques observations sont connues au sud des États-Unis.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ariane_b%C3%A9ryl</t>
+          <t>Ariane_béryl</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses habitats sont les forêts humides de basses et hautes altitudes, ainsi que les forêts sèches mais aussi sur les anciennes forêts lourdement dégradées, les plantations agricoles, les jardins de campagnes et de nombreuses aires urbaines.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ariane_b%C3%A9ryl</t>
+          <t>Ariane_béryl</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cinq sous-espèces ont été décrites :
 S. beryllina beryllina (Deppe, 1830) ;
